--- a/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-dispense-operation-input-parameters.xlsx
+++ b/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-dispense-operation-input-parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -383,6 +383,10 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
   </si>
@@ -423,6 +427,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -462,6 +476,9 @@
     <t>The name of the parameter (reference to the operation definition).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Parameters.parameter.value[x]</t>
   </si>
   <si>
@@ -475,24 +492,31 @@
     <t>If the parameter is a data type.</t>
   </si>
   <si>
+    <t>ele-1
+inv-1</t>
+  </si>
+  <si>
+    <t>Parameters.parameter.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>If parameter is a whole resource</t>
+  </si>
+  <si>
+    <t>If the parameter is a whole resource.</t>
+  </si>
+  <si>
+    <t>When resolving references in resources, the operation definition may specify how references may be resolved between parameters. If a reference cannot be resolved between the parameters, the application should fall back to it's general resource resolution methods.</t>
+  </si>
+  <si>
     <t xml:space="preserve">inv-1
 </t>
   </si>
   <si>
-    <t>Parameters.parameter.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>If parameter is a whole resource</t>
-  </si>
-  <si>
-    <t>If the parameter is a whole resource.</t>
-  </si>
-  <si>
-    <t>When resolving references in resources, the operation definition may specify how references may be resolved between parameters. If a reference cannot be resolved between the parameters, the application should fall back to it's general resource resolution methods.</t>
+    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Parameters.parameter.part</t>
@@ -607,7 +631,7 @@
     <t>Parameters.parameter:rxDispensation.part:medicationDispense.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationDispense {https://gematik.de/fhir/erp/StructureDefinition/eflow-rx-medicationdispense}
+    <t xml:space="preserve">MedicationDispense {https://gematik.de/fhir/erp/StructureDefinition/GEM-ERP-PR-MedicationDispense}
 </t>
   </si>
   <si>
@@ -647,7 +671,7 @@
     <t>Parameters.parameter:rxDispensation.part:medication.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Medication {https://gematik.de/fhir/erp/StructureDefinition/eflow-rx-medication}
+    <t xml:space="preserve">Medication {https://gematik.de/fhir/erp/StructureDefinition/GEM-ERP-PR-Medication}
 </t>
   </si>
   <si>
@@ -1021,7 +1045,7 @@
     <col min="26" max="26" width="35.15234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1778,24 +1802,24 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1818,13 +1842,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1875,7 +1899,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -1898,14 +1922,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1924,16 +1948,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1971,19 +1995,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1995,7 +2019,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2006,14 +2030,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2032,19 +2056,19 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2093,7 +2117,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2105,21 +2129,21 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2142,15 +2166,17 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2199,7 +2225,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>85</v>
@@ -2222,10 +2248,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2248,13 +2274,13 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2305,7 +2331,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2314,7 +2340,7 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>97</v>
@@ -2323,15 +2349,15 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2354,16 +2380,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2413,7 +2439,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2422,7 +2448,7 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -2431,15 +2457,15 @@
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2465,13 +2491,13 @@
         <v>76</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2521,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2533,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2544,13 +2570,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>113</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2638,24 +2664,24 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2678,13 +2704,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2735,7 +2761,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2758,14 +2784,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2784,16 +2810,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2831,19 +2857,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2855,7 +2881,7 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -2866,14 +2892,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2892,19 +2918,19 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -2953,7 +2979,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -2965,21 +2991,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3002,15 +3028,17 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3020,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3059,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
@@ -3082,10 +3110,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3108,13 +3136,13 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3165,7 +3193,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3174,7 +3202,7 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
@@ -3183,15 +3211,15 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3214,16 +3242,16 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3273,7 +3301,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3282,7 +3310,7 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -3291,15 +3319,15 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3307,7 +3335,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3325,13 +3353,13 @@
         <v>76</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3379,7 +3407,7 @@
         <v>118</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3391,7 +3419,7 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3402,10 +3430,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3428,13 +3456,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3485,7 +3513,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3508,14 +3536,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3534,16 +3562,16 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3581,19 +3609,19 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3605,7 +3633,7 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -3616,14 +3644,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3642,19 +3670,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3703,7 +3731,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3715,21 +3743,21 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3752,15 +3780,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -3809,7 +3839,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -3832,10 +3862,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3858,13 +3888,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3915,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -3924,7 +3954,7 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>97</v>
@@ -3933,15 +3963,15 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3964,16 +3994,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4023,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4032,7 +4062,7 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4041,15 +4071,15 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4075,13 +4105,13 @@
         <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4131,7 +4161,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4143,7 +4173,7 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4154,13 +4184,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
@@ -4185,13 +4215,13 @@
         <v>114</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4241,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4253,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4264,10 +4294,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4290,13 +4320,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4347,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4370,14 +4400,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4396,16 +4426,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4443,19 +4473,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4467,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -4478,14 +4508,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4504,19 +4534,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4565,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4577,21 +4607,21 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4614,15 +4644,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -4632,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -4671,7 +4703,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>85</v>
@@ -4694,10 +4726,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4720,13 +4752,13 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4777,7 +4809,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4818,7 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
@@ -4795,15 +4827,15 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4826,16 +4858,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -4885,7 +4917,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -4903,15 +4935,15 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4937,13 +4969,13 @@
         <v>76</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4993,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5005,7 +5037,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5016,13 +5048,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>76</v>
@@ -5047,13 +5079,13 @@
         <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5103,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5115,7 +5147,7 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5126,10 +5158,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5152,13 +5184,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5209,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5232,14 +5264,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5258,16 +5290,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5305,19 +5337,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5361,7 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5340,14 +5372,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5366,19 +5398,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5427,7 +5459,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5439,21 +5471,21 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5476,15 +5508,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -5494,7 +5528,7 @@
         <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>76</v>
@@ -5533,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>85</v>
@@ -5556,10 +5590,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5582,13 +5616,13 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5639,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -5648,7 +5682,7 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>97</v>
@@ -5657,15 +5691,15 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5688,16 +5722,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5747,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -5765,15 +5799,15 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5799,13 +5833,13 @@
         <v>76</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -5855,7 +5889,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -5867,7 +5901,7 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
